--- a/application/views/rpt/ru/doc/upd.xlsx
+++ b/application/views/rpt/ru/doc/upd.xlsx
@@ -404,11 +404,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0;\-0;\-"/>
     <numFmt numFmtId="166" formatCode="0.00;\-0.00;\-"/>
     <numFmt numFmtId="167" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -651,7 +652,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -802,6 +803,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -915,29 +920,29 @@
   </sheetPr>
   <dimension ref="B1:BQ51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF22" activeCellId="0" sqref="AF22"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF21" activeCellId="0" sqref="AF21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="2.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="2.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="5.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.22"/>
@@ -951,7 +956,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="5.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="43" style="0" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="8.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="2.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="47" style="0" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="1"/>
@@ -960,10 +965,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="55" style="0" width="5.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="2.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="1.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="2.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="1.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="2.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="5.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="4.22"/>
@@ -2444,1564 +2449,1564 @@
       <c r="AK21" s="38"/>
       <c r="AL21" s="38"/>
       <c r="AM21" s="38"/>
-      <c r="AN21" s="38" t="s">
+      <c r="AN21" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="39" t="s">
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="40" t="s">
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="40"/>
-      <c r="AZ21" s="40"/>
-      <c r="BA21" s="40"/>
-      <c r="BB21" s="40"/>
-      <c r="BC21" s="41"/>
-      <c r="BD21" s="41"/>
-      <c r="BE21" s="41"/>
-      <c r="BF21" s="41"/>
-      <c r="BG21" s="41"/>
-      <c r="BH21" s="41"/>
-      <c r="BI21" s="41"/>
-      <c r="BJ21" s="41"/>
-      <c r="BK21" s="41"/>
-      <c r="BL21" s="41"/>
-      <c r="BM21" s="41"/>
-      <c r="BN21" s="41"/>
-      <c r="BO21" s="41"/>
-      <c r="BP21" s="41"/>
-    </row>
-    <row r="22" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-    </row>
-    <row r="23" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="45" t="s">
+      <c r="AX21" s="41"/>
+      <c r="AY21" s="41"/>
+      <c r="AZ21" s="41"/>
+      <c r="BA21" s="41"/>
+      <c r="BB21" s="41"/>
+      <c r="BC21" s="42"/>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="42"/>
+      <c r="BF21" s="42"/>
+      <c r="BG21" s="42"/>
+      <c r="BH21" s="42"/>
+      <c r="BI21" s="42"/>
+      <c r="BJ21" s="42"/>
+      <c r="BK21" s="42"/>
+      <c r="BL21" s="42"/>
+      <c r="BM21" s="42"/>
+      <c r="BN21" s="42"/>
+      <c r="BO21" s="42"/>
+      <c r="BP21" s="42"/>
+    </row>
+    <row r="22" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C23" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="44"/>
-      <c r="K23" s="46" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="45"/>
+      <c r="K23" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="AH23" s="46" t="s">
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="AH23" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="46"/>
-      <c r="AM23" s="46"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-    </row>
-    <row r="24" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="44"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="W24" s="48" t="s">
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="47"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="47"/>
+    </row>
+    <row r="24" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="45"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="W24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="46"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="46"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="47"/>
-      <c r="AR24" s="47"/>
-      <c r="AS24" s="47"/>
-      <c r="AT24" s="47"/>
-      <c r="AU24" s="47"/>
-      <c r="AW24" s="49" t="s">
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AW24" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="AX24" s="49"/>
-      <c r="AY24" s="49"/>
-      <c r="AZ24" s="49"/>
-      <c r="BA24" s="49"/>
-      <c r="BB24" s="49"/>
-      <c r="BC24" s="49"/>
-      <c r="BD24" s="49"/>
-      <c r="BE24" s="49"/>
-      <c r="BF24" s="49"/>
-      <c r="BG24" s="49"/>
-      <c r="BH24" s="49"/>
-      <c r="BI24" s="49"/>
-      <c r="BJ24" s="49"/>
-      <c r="BK24" s="49"/>
-      <c r="BL24" s="49"/>
-      <c r="BM24" s="49"/>
-      <c r="BN24" s="49"/>
-      <c r="BO24" s="49"/>
-      <c r="BP24" s="49"/>
-    </row>
-    <row r="25" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="49" t="s">
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="50"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="50"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="50"/>
+      <c r="BH24" s="50"/>
+      <c r="BI24" s="50"/>
+      <c r="BJ24" s="50"/>
+      <c r="BK24" s="50"/>
+      <c r="BL24" s="50"/>
+      <c r="BM24" s="50"/>
+      <c r="BN24" s="50"/>
+      <c r="BO24" s="50"/>
+      <c r="BP24" s="50"/>
+    </row>
+    <row r="25" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="50" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="44"/>
-      <c r="T25" s="51" t="s">
+      <c r="H25" s="51"/>
+      <c r="I25" s="45"/>
+      <c r="T25" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U25" s="51"/>
-      <c r="W25" s="51" t="s">
+      <c r="U25" s="52"/>
+      <c r="W25" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AQ25" s="51" t="s">
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AQ25" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="AR25" s="51"/>
-      <c r="AS25" s="51"/>
-      <c r="AT25" s="51"/>
-      <c r="AU25" s="52"/>
-      <c r="AW25" s="53" t="s">
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="53"/>
+      <c r="AW25" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
-      <c r="BB25" s="53"/>
-      <c r="BC25" s="53"/>
-      <c r="BD25" s="53"/>
-      <c r="BE25" s="53"/>
-      <c r="BF25" s="53"/>
-      <c r="BG25" s="53"/>
-      <c r="BH25" s="53"/>
-      <c r="BI25" s="53"/>
-      <c r="BJ25" s="53"/>
-      <c r="BK25" s="53"/>
-      <c r="BL25" s="53"/>
-      <c r="BM25" s="53"/>
-      <c r="BN25" s="53"/>
-      <c r="BO25" s="53"/>
-      <c r="BP25" s="53"/>
-    </row>
-    <row r="26" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="I26" s="44"/>
-      <c r="K26" s="46" t="s">
+      <c r="AX25" s="54"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="54"/>
+      <c r="BA25" s="54"/>
+      <c r="BB25" s="54"/>
+      <c r="BC25" s="54"/>
+      <c r="BD25" s="54"/>
+      <c r="BE25" s="54"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="54"/>
+      <c r="BH25" s="54"/>
+      <c r="BI25" s="54"/>
+      <c r="BJ25" s="54"/>
+      <c r="BK25" s="54"/>
+      <c r="BL25" s="54"/>
+      <c r="BM25" s="54"/>
+      <c r="BN25" s="54"/>
+      <c r="BO25" s="54"/>
+      <c r="BP25" s="54"/>
+    </row>
+    <row r="26" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="I26" s="45"/>
+      <c r="K26" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-    </row>
-    <row r="27" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I27" s="44"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AH27" s="47"/>
-      <c r="AI27" s="47"/>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="47"/>
-      <c r="AL27" s="47"/>
-      <c r="AM27" s="47"/>
-      <c r="AN27" s="47"/>
-      <c r="AO27" s="47"/>
-      <c r="AP27" s="47"/>
-      <c r="AQ27" s="47"/>
-      <c r="AR27" s="47"/>
-      <c r="AS27" s="47"/>
-      <c r="AT27" s="47"/>
-      <c r="AU27" s="47"/>
-      <c r="AV27" s="47"/>
-      <c r="AW27" s="47"/>
-      <c r="AX27" s="47"/>
-      <c r="AY27" s="47"/>
-      <c r="AZ27" s="47"/>
-      <c r="BA27" s="47"/>
-      <c r="BB27" s="47"/>
-      <c r="BC27" s="47"/>
-      <c r="BD27" s="47"/>
-      <c r="BE27" s="47"/>
-      <c r="BF27" s="47"/>
-      <c r="BG27" s="47"/>
-      <c r="BH27" s="47"/>
-      <c r="BI27" s="47"/>
-      <c r="BJ27" s="47"/>
-      <c r="BK27" s="47"/>
-      <c r="BL27" s="47"/>
-      <c r="BM27" s="47"/>
-      <c r="BN27" s="47"/>
-      <c r="BO27" s="47"/>
-    </row>
-    <row r="28" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I28" s="44"/>
-      <c r="T28" s="51" t="s">
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+    </row>
+    <row r="27" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I27" s="45"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+      <c r="AS27" s="48"/>
+      <c r="AT27" s="48"/>
+      <c r="AU27" s="48"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="48"/>
+      <c r="AX27" s="48"/>
+      <c r="AY27" s="48"/>
+      <c r="AZ27" s="48"/>
+      <c r="BA27" s="48"/>
+      <c r="BB27" s="48"/>
+      <c r="BC27" s="48"/>
+      <c r="BD27" s="48"/>
+      <c r="BE27" s="48"/>
+      <c r="BF27" s="48"/>
+      <c r="BG27" s="48"/>
+      <c r="BH27" s="48"/>
+      <c r="BI27" s="48"/>
+      <c r="BJ27" s="48"/>
+      <c r="BK27" s="48"/>
+      <c r="BL27" s="48"/>
+      <c r="BM27" s="48"/>
+      <c r="BN27" s="48"/>
+      <c r="BO27" s="48"/>
+    </row>
+    <row r="28" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I28" s="45"/>
+      <c r="T28" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U28" s="52"/>
-      <c r="W28" s="51" t="s">
+      <c r="U28" s="53"/>
+      <c r="W28" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AH28" s="53" t="s">
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AH28" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="53"/>
-      <c r="AQ28" s="53"/>
-      <c r="AR28" s="53"/>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="53"/>
-      <c r="AZ28" s="53"/>
-      <c r="BA28" s="53"/>
-      <c r="BB28" s="53"/>
-      <c r="BC28" s="53"/>
-      <c r="BD28" s="53"/>
-      <c r="BE28" s="53"/>
-      <c r="BF28" s="53"/>
-      <c r="BG28" s="53"/>
-      <c r="BH28" s="53"/>
-      <c r="BI28" s="53"/>
-      <c r="BJ28" s="53"/>
-      <c r="BK28" s="53"/>
-      <c r="BL28" s="53"/>
-      <c r="BM28" s="53"/>
-      <c r="BN28" s="53"/>
-      <c r="BO28" s="53"/>
-      <c r="BP28" s="53"/>
-    </row>
-    <row r="29" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I29" s="54"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="47"/>
-      <c r="AL29" s="47"/>
-      <c r="AM29" s="47"/>
-      <c r="AN29" s="47"/>
-      <c r="AO29" s="47"/>
-      <c r="AP29" s="47"/>
-      <c r="AQ29" s="47"/>
-      <c r="AR29" s="47"/>
-      <c r="AS29" s="47"/>
-      <c r="AT29" s="47"/>
-      <c r="AU29" s="47"/>
-      <c r="AV29" s="47"/>
-      <c r="AW29" s="47"/>
-      <c r="AX29" s="47"/>
-      <c r="AY29" s="47"/>
-      <c r="AZ29" s="47"/>
-      <c r="BA29" s="47"/>
-      <c r="BB29" s="47"/>
-      <c r="BC29" s="47"/>
-      <c r="BD29" s="47"/>
-      <c r="BE29" s="47"/>
-      <c r="BF29" s="47"/>
-      <c r="BG29" s="47"/>
-      <c r="BH29" s="47"/>
-      <c r="BI29" s="47"/>
-      <c r="BJ29" s="47"/>
-      <c r="BK29" s="47"/>
-    </row>
-    <row r="30" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="52"/>
-      <c r="AM30" s="52"/>
-      <c r="AN30" s="52"/>
-      <c r="AO30" s="52"/>
-      <c r="AP30" s="52"/>
-      <c r="AQ30" s="52"/>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="52"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="52"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="52"/>
-      <c r="AY30" s="52"/>
-      <c r="AZ30" s="52"/>
-      <c r="BA30" s="52"/>
-      <c r="BB30" s="52"/>
-      <c r="BC30" s="52"/>
-      <c r="BD30" s="52"/>
-      <c r="BE30" s="52"/>
-      <c r="BF30" s="52"/>
-      <c r="BG30" s="52"/>
-      <c r="BH30" s="52"/>
-      <c r="BI30" s="52"/>
-      <c r="BJ30" s="52"/>
-      <c r="BK30" s="52"/>
-    </row>
-    <row r="31" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="55" t="s">
+      <c r="AI28" s="54"/>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="54"/>
+      <c r="AL28" s="54"/>
+      <c r="AM28" s="54"/>
+      <c r="AN28" s="54"/>
+      <c r="AO28" s="54"/>
+      <c r="AP28" s="54"/>
+      <c r="AQ28" s="54"/>
+      <c r="AR28" s="54"/>
+      <c r="AS28" s="54"/>
+      <c r="AT28" s="54"/>
+      <c r="AU28" s="54"/>
+      <c r="AV28" s="54"/>
+      <c r="AW28" s="54"/>
+      <c r="AX28" s="54"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="54"/>
+      <c r="BA28" s="54"/>
+      <c r="BB28" s="54"/>
+      <c r="BC28" s="54"/>
+      <c r="BD28" s="54"/>
+      <c r="BE28" s="54"/>
+      <c r="BF28" s="54"/>
+      <c r="BG28" s="54"/>
+      <c r="BH28" s="54"/>
+      <c r="BI28" s="54"/>
+      <c r="BJ28" s="54"/>
+      <c r="BK28" s="54"/>
+      <c r="BL28" s="54"/>
+      <c r="BM28" s="54"/>
+      <c r="BN28" s="54"/>
+      <c r="BO28" s="54"/>
+      <c r="BP28" s="54"/>
+    </row>
+    <row r="29" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I29" s="55"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="48"/>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="48"/>
+      <c r="AS29" s="48"/>
+      <c r="AT29" s="48"/>
+      <c r="AU29" s="48"/>
+      <c r="AV29" s="48"/>
+      <c r="AW29" s="48"/>
+      <c r="AX29" s="48"/>
+      <c r="AY29" s="48"/>
+      <c r="AZ29" s="48"/>
+      <c r="BA29" s="48"/>
+      <c r="BB29" s="48"/>
+      <c r="BC29" s="48"/>
+      <c r="BD29" s="48"/>
+      <c r="BE29" s="48"/>
+      <c r="BF29" s="48"/>
+      <c r="BG29" s="48"/>
+      <c r="BH29" s="48"/>
+      <c r="BI29" s="48"/>
+      <c r="BJ29" s="48"/>
+      <c r="BK29" s="48"/>
+    </row>
+    <row r="30" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="53"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="53"/>
+      <c r="AS30" s="53"/>
+      <c r="AT30" s="53"/>
+      <c r="AU30" s="53"/>
+      <c r="AV30" s="53"/>
+      <c r="AW30" s="53"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="53"/>
+      <c r="AZ30" s="53"/>
+      <c r="BA30" s="53"/>
+      <c r="BB30" s="53"/>
+      <c r="BC30" s="53"/>
+      <c r="BD30" s="53"/>
+      <c r="BE30" s="53"/>
+      <c r="BF30" s="53"/>
+      <c r="BG30" s="53"/>
+      <c r="BH30" s="53"/>
+      <c r="BI30" s="53"/>
+      <c r="BJ30" s="53"/>
+      <c r="BK30" s="53"/>
+    </row>
+    <row r="31" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="48" t="s">
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="48"/>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="48"/>
-      <c r="AX31" s="48"/>
-      <c r="AY31" s="48"/>
-      <c r="AZ31" s="48"/>
-      <c r="BA31" s="48"/>
-      <c r="BB31" s="48"/>
-      <c r="BC31" s="48"/>
-      <c r="BD31" s="48"/>
-      <c r="BE31" s="48"/>
-      <c r="BF31" s="48"/>
-      <c r="BG31" s="48"/>
-      <c r="BH31" s="48"/>
-      <c r="BI31" s="48"/>
-      <c r="BJ31" s="48"/>
-    </row>
-    <row r="32" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q32" s="56" t="s">
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="49"/>
+      <c r="BA31" s="49"/>
+      <c r="BB31" s="49"/>
+      <c r="BC31" s="49"/>
+      <c r="BD31" s="49"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="49"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="49"/>
+    </row>
+    <row r="32" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q32" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="56"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="56"/>
-      <c r="AT32" s="56"/>
-      <c r="AU32" s="56"/>
-      <c r="AV32" s="56"/>
-      <c r="AW32" s="56"/>
-      <c r="AX32" s="56"/>
-      <c r="AY32" s="56"/>
-      <c r="AZ32" s="56"/>
-      <c r="BA32" s="56"/>
-      <c r="BB32" s="56"/>
-      <c r="BC32" s="56"/>
-      <c r="BD32" s="56"/>
-      <c r="BE32" s="56"/>
-      <c r="BF32" s="56"/>
-      <c r="BG32" s="56"/>
-      <c r="BH32" s="56"/>
-      <c r="BI32" s="56"/>
-      <c r="BJ32" s="56"/>
-    </row>
-    <row r="33" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="55" t="s">
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="57"/>
+    </row>
+    <row r="33" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="47"/>
-      <c r="AH33" s="47"/>
-      <c r="AI33" s="47"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="47"/>
-      <c r="AL33" s="47"/>
-      <c r="AM33" s="47"/>
-      <c r="AN33" s="47"/>
-      <c r="AO33" s="47"/>
-      <c r="AP33" s="47"/>
-      <c r="AQ33" s="47"/>
-      <c r="AR33" s="47"/>
-      <c r="AS33" s="47"/>
-      <c r="AT33" s="47"/>
-      <c r="AU33" s="47"/>
-      <c r="AV33" s="47"/>
-      <c r="AW33" s="47"/>
-      <c r="AX33" s="47"/>
-      <c r="AY33" s="47"/>
-      <c r="AZ33" s="47"/>
-      <c r="BA33" s="47"/>
-      <c r="BB33" s="47"/>
-      <c r="BC33" s="47"/>
-      <c r="BD33" s="47"/>
-      <c r="BE33" s="47"/>
-      <c r="BF33" s="47"/>
-      <c r="BG33" s="47"/>
-      <c r="BH33" s="47"/>
-      <c r="BI33" s="47"/>
-      <c r="BJ33" s="47"/>
-    </row>
-    <row r="34" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M34" s="53" t="s">
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="48"/>
+      <c r="AI33" s="48"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="48"/>
+      <c r="AO33" s="48"/>
+      <c r="AP33" s="48"/>
+      <c r="AQ33" s="48"/>
+      <c r="AR33" s="48"/>
+      <c r="AS33" s="48"/>
+      <c r="AT33" s="48"/>
+      <c r="AU33" s="48"/>
+      <c r="AV33" s="48"/>
+      <c r="AW33" s="48"/>
+      <c r="AX33" s="48"/>
+      <c r="AY33" s="48"/>
+      <c r="AZ33" s="48"/>
+      <c r="BA33" s="48"/>
+      <c r="BB33" s="48"/>
+      <c r="BC33" s="48"/>
+      <c r="BD33" s="48"/>
+      <c r="BE33" s="48"/>
+      <c r="BF33" s="48"/>
+      <c r="BG33" s="48"/>
+      <c r="BH33" s="48"/>
+      <c r="BI33" s="48"/>
+      <c r="BJ33" s="48"/>
+    </row>
+    <row r="34" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M34" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="53"/>
-      <c r="AD34" s="53"/>
-      <c r="AE34" s="53"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
-      <c r="AN34" s="53"/>
-      <c r="AO34" s="53"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="53"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="53"/>
-      <c r="AU34" s="53"/>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
-      <c r="BB34" s="53"/>
-      <c r="BC34" s="53"/>
-      <c r="BD34" s="53"/>
-      <c r="BE34" s="53"/>
-      <c r="BF34" s="53"/>
-      <c r="BG34" s="53"/>
-      <c r="BH34" s="53"/>
-      <c r="BI34" s="53"/>
-      <c r="BJ34" s="53"/>
-    </row>
-    <row r="35" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="57" t="s">
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="54"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="54"/>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="54"/>
+      <c r="AN34" s="54"/>
+      <c r="AO34" s="54"/>
+      <c r="AP34" s="54"/>
+      <c r="AQ34" s="54"/>
+      <c r="AR34" s="54"/>
+      <c r="AS34" s="54"/>
+      <c r="AT34" s="54"/>
+      <c r="AU34" s="54"/>
+      <c r="AV34" s="54"/>
+      <c r="AW34" s="54"/>
+      <c r="AX34" s="54"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="54"/>
+      <c r="BB34" s="54"/>
+      <c r="BC34" s="54"/>
+      <c r="BD34" s="54"/>
+      <c r="BE34" s="54"/>
+      <c r="BF34" s="54"/>
+      <c r="BG34" s="54"/>
+      <c r="BH34" s="54"/>
+      <c r="BI34" s="54"/>
+      <c r="BJ34" s="54"/>
+    </row>
+    <row r="35" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="57"/>
-      <c r="AC35" s="57"/>
-      <c r="AD35" s="57"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="57"/>
-      <c r="AI35" s="57"/>
-      <c r="AK35" s="44"/>
-      <c r="AL35" s="57" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="58"/>
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="58"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="AM35" s="57"/>
-      <c r="AN35" s="57"/>
-      <c r="AO35" s="57"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="57"/>
-      <c r="AW35" s="57"/>
-      <c r="AX35" s="57"/>
-      <c r="AY35" s="57"/>
-      <c r="AZ35" s="57"/>
-      <c r="BA35" s="57"/>
-      <c r="BB35" s="57"/>
-      <c r="BC35" s="57"/>
-      <c r="BD35" s="57"/>
-      <c r="BE35" s="57"/>
-      <c r="BF35" s="57"/>
-      <c r="BG35" s="57"/>
-      <c r="BH35" s="57"/>
-      <c r="BI35" s="57"/>
-      <c r="BJ35" s="57"/>
-      <c r="BK35" s="57"/>
-      <c r="BL35" s="57"/>
-      <c r="BM35" s="57"/>
-      <c r="BN35" s="57"/>
-      <c r="BO35" s="57"/>
-      <c r="BP35" s="57"/>
-    </row>
-    <row r="36" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AK36" s="44"/>
-    </row>
-    <row r="37" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AK37" s="44"/>
-      <c r="AM37" s="47"/>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="47"/>
-      <c r="AP37" s="47"/>
-      <c r="AQ37" s="47"/>
-      <c r="AR37" s="47"/>
-      <c r="AS37" s="47"/>
-      <c r="AT37" s="47"/>
-      <c r="AU37" s="47"/>
-      <c r="AV37" s="47"/>
-      <c r="AW37" s="47"/>
-      <c r="AX37" s="47"/>
-      <c r="AZ37" s="47"/>
-      <c r="BA37" s="47"/>
-      <c r="BB37" s="47"/>
-      <c r="BC37" s="47"/>
-      <c r="BD37" s="47"/>
-      <c r="BF37" s="47"/>
-      <c r="BG37" s="47"/>
-      <c r="BH37" s="47"/>
-      <c r="BI37" s="47"/>
-      <c r="BJ37" s="47"/>
-      <c r="BK37" s="47"/>
-      <c r="BL37" s="47"/>
-      <c r="BM37" s="47"/>
-    </row>
-    <row r="38" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="51" t="s">
+      <c r="AM35" s="58"/>
+      <c r="AN35" s="58"/>
+      <c r="AO35" s="58"/>
+      <c r="AP35" s="58"/>
+      <c r="AQ35" s="58"/>
+      <c r="AR35" s="58"/>
+      <c r="AS35" s="58"/>
+      <c r="AT35" s="58"/>
+      <c r="AU35" s="58"/>
+      <c r="AV35" s="58"/>
+      <c r="AW35" s="58"/>
+      <c r="AX35" s="58"/>
+      <c r="AY35" s="58"/>
+      <c r="AZ35" s="58"/>
+      <c r="BA35" s="58"/>
+      <c r="BB35" s="58"/>
+      <c r="BC35" s="58"/>
+      <c r="BD35" s="58"/>
+      <c r="BE35" s="58"/>
+      <c r="BF35" s="58"/>
+      <c r="BG35" s="58"/>
+      <c r="BH35" s="58"/>
+      <c r="BI35" s="58"/>
+      <c r="BJ35" s="58"/>
+      <c r="BK35" s="58"/>
+      <c r="BL35" s="58"/>
+      <c r="BM35" s="58"/>
+      <c r="BN35" s="58"/>
+      <c r="BO35" s="58"/>
+      <c r="BP35" s="58"/>
+    </row>
+    <row r="36" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AK36" s="45"/>
+    </row>
+    <row r="37" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AK37" s="45"/>
+      <c r="AM37" s="48"/>
+      <c r="AN37" s="48"/>
+      <c r="AO37" s="48"/>
+      <c r="AP37" s="48"/>
+      <c r="AQ37" s="48"/>
+      <c r="AR37" s="48"/>
+      <c r="AS37" s="48"/>
+      <c r="AT37" s="48"/>
+      <c r="AU37" s="48"/>
+      <c r="AV37" s="48"/>
+      <c r="AW37" s="48"/>
+      <c r="AX37" s="48"/>
+      <c r="AZ37" s="48"/>
+      <c r="BA37" s="48"/>
+      <c r="BB37" s="48"/>
+      <c r="BC37" s="48"/>
+      <c r="BD37" s="48"/>
+      <c r="BF37" s="48"/>
+      <c r="BG37" s="48"/>
+      <c r="BH37" s="48"/>
+      <c r="BI37" s="48"/>
+      <c r="BJ37" s="48"/>
+      <c r="BK37" s="48"/>
+      <c r="BL37" s="48"/>
+      <c r="BM37" s="48"/>
+    </row>
+    <row r="38" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C38" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="R38" s="51" t="s">
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="R38" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="V38" s="51" t="s">
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="V38" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="51"/>
-      <c r="AK38" s="44"/>
-      <c r="AM38" s="51" t="s">
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AK38" s="45"/>
+      <c r="AM38" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="AN38" s="51"/>
-      <c r="AO38" s="51"/>
-      <c r="AP38" s="51"/>
-      <c r="AQ38" s="51"/>
-      <c r="AR38" s="51"/>
-      <c r="AS38" s="51"/>
-      <c r="AT38" s="51"/>
-      <c r="AU38" s="51"/>
-      <c r="AV38" s="51"/>
-      <c r="AW38" s="51"/>
-      <c r="AX38" s="51"/>
-      <c r="AY38" s="53" t="s">
+      <c r="AN38" s="52"/>
+      <c r="AO38" s="52"/>
+      <c r="AP38" s="52"/>
+      <c r="AQ38" s="52"/>
+      <c r="AR38" s="52"/>
+      <c r="AS38" s="52"/>
+      <c r="AT38" s="52"/>
+      <c r="AU38" s="52"/>
+      <c r="AV38" s="52"/>
+      <c r="AW38" s="52"/>
+      <c r="AX38" s="52"/>
+      <c r="AY38" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="AZ38" s="53"/>
-      <c r="BA38" s="53"/>
-      <c r="BB38" s="53"/>
-      <c r="BC38" s="53"/>
-      <c r="BD38" s="53"/>
-      <c r="BF38" s="51" t="s">
+      <c r="AZ38" s="54"/>
+      <c r="BA38" s="54"/>
+      <c r="BB38" s="54"/>
+      <c r="BC38" s="54"/>
+      <c r="BD38" s="54"/>
+      <c r="BF38" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="BG38" s="51"/>
-      <c r="BH38" s="51"/>
-      <c r="BI38" s="51"/>
-      <c r="BJ38" s="51"/>
-      <c r="BK38" s="51"/>
-      <c r="BL38" s="51"/>
-      <c r="BM38" s="51"/>
-    </row>
-    <row r="39" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="55" t="s">
+      <c r="BG38" s="52"/>
+      <c r="BH38" s="52"/>
+      <c r="BI38" s="52"/>
+      <c r="BJ38" s="52"/>
+      <c r="BK38" s="52"/>
+      <c r="BL38" s="52"/>
+      <c r="BM38" s="52"/>
+    </row>
+    <row r="39" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="58" t="s">
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="58"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="58"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="55" t="s">
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="AM39" s="55"/>
-      <c r="AN39" s="55"/>
-      <c r="AO39" s="55"/>
-      <c r="AP39" s="55"/>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="55"/>
-      <c r="AS39" s="55"/>
-      <c r="AT39" s="55"/>
-      <c r="AU39" s="55"/>
-      <c r="AV39" s="55"/>
-      <c r="AW39" s="55"/>
-      <c r="AX39" s="55"/>
-      <c r="AZ39" s="47"/>
-      <c r="BA39" s="47"/>
-      <c r="BB39" s="47"/>
-      <c r="BC39" s="47"/>
-      <c r="BD39" s="47"/>
-      <c r="BE39" s="47"/>
-      <c r="BF39" s="47"/>
-      <c r="BG39" s="47"/>
-      <c r="BH39" s="47"/>
-      <c r="BI39" s="47"/>
-      <c r="BJ39" s="47"/>
-      <c r="BK39" s="47"/>
-      <c r="BL39" s="47"/>
-      <c r="BM39" s="47"/>
-      <c r="BN39" s="47"/>
-    </row>
-    <row r="40" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AK40" s="44"/>
-      <c r="AZ40" s="52"/>
-      <c r="BA40" s="52"/>
-      <c r="BB40" s="52"/>
-      <c r="BC40" s="52"/>
-      <c r="BD40" s="52"/>
-      <c r="BE40" s="52"/>
-      <c r="BF40" s="52"/>
-      <c r="BG40" s="52"/>
-      <c r="BH40" s="52"/>
-      <c r="BI40" s="52"/>
-      <c r="BJ40" s="52"/>
-      <c r="BK40" s="52"/>
-      <c r="BL40" s="52"/>
-      <c r="BM40" s="52"/>
-      <c r="BN40" s="52"/>
-    </row>
-    <row r="41" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="55" t="s">
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="56"/>
+      <c r="AQ39" s="56"/>
+      <c r="AR39" s="56"/>
+      <c r="AS39" s="56"/>
+      <c r="AT39" s="56"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="56"/>
+      <c r="AW39" s="56"/>
+      <c r="AX39" s="56"/>
+      <c r="AZ39" s="48"/>
+      <c r="BA39" s="48"/>
+      <c r="BB39" s="48"/>
+      <c r="BC39" s="48"/>
+      <c r="BD39" s="48"/>
+      <c r="BE39" s="48"/>
+      <c r="BF39" s="48"/>
+      <c r="BG39" s="48"/>
+      <c r="BH39" s="48"/>
+      <c r="BI39" s="48"/>
+      <c r="BJ39" s="48"/>
+      <c r="BK39" s="48"/>
+      <c r="BL39" s="48"/>
+      <c r="BM39" s="48"/>
+      <c r="BN39" s="48"/>
+    </row>
+    <row r="40" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AK40" s="45"/>
+      <c r="AZ40" s="53"/>
+      <c r="BA40" s="53"/>
+      <c r="BB40" s="53"/>
+      <c r="BC40" s="53"/>
+      <c r="BD40" s="53"/>
+      <c r="BE40" s="53"/>
+      <c r="BF40" s="53"/>
+      <c r="BG40" s="53"/>
+      <c r="BH40" s="53"/>
+      <c r="BI40" s="53"/>
+      <c r="BJ40" s="53"/>
+      <c r="BK40" s="53"/>
+      <c r="BL40" s="53"/>
+      <c r="BM40" s="53"/>
+      <c r="BN40" s="53"/>
+    </row>
+    <row r="41" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="AK41" s="44"/>
-      <c r="AL41" s="55" t="s">
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="AM41" s="55"/>
-      <c r="AN41" s="55"/>
-      <c r="AO41" s="55"/>
-      <c r="AP41" s="55"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="55"/>
-      <c r="AT41" s="55"/>
-      <c r="AU41" s="55"/>
-      <c r="AV41" s="55"/>
-      <c r="AW41" s="55"/>
-      <c r="AX41" s="55"/>
-    </row>
-    <row r="42" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="47"/>
-      <c r="AI42" s="47"/>
-      <c r="AK42" s="44"/>
-      <c r="AM42" s="47"/>
-      <c r="AN42" s="47"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="47"/>
-      <c r="AQ42" s="47"/>
-      <c r="AR42" s="47"/>
-      <c r="AS42" s="47"/>
-      <c r="AT42" s="47"/>
-      <c r="AU42" s="47"/>
-      <c r="AV42" s="47"/>
-      <c r="AW42" s="47"/>
-      <c r="AX42" s="47"/>
-      <c r="AY42" s="47"/>
-      <c r="AZ42" s="47"/>
-      <c r="BA42" s="47"/>
-      <c r="BB42" s="47"/>
-      <c r="BC42" s="47"/>
-      <c r="BD42" s="47"/>
-      <c r="BE42" s="47"/>
-      <c r="BF42" s="47"/>
-      <c r="BG42" s="47"/>
-      <c r="BH42" s="47"/>
-      <c r="BI42" s="47"/>
-      <c r="BJ42" s="47"/>
-      <c r="BK42" s="47"/>
-      <c r="BL42" s="47"/>
-      <c r="BM42" s="47"/>
-      <c r="BN42" s="47"/>
-      <c r="BO42" s="47"/>
-      <c r="BP42" s="47"/>
-    </row>
-    <row r="43" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="59" t="s">
+      <c r="AM41" s="56"/>
+      <c r="AN41" s="56"/>
+      <c r="AO41" s="56"/>
+      <c r="AP41" s="56"/>
+      <c r="AQ41" s="56"/>
+      <c r="AR41" s="56"/>
+      <c r="AS41" s="56"/>
+      <c r="AT41" s="56"/>
+      <c r="AU41" s="56"/>
+      <c r="AV41" s="56"/>
+      <c r="AW41" s="56"/>
+      <c r="AX41" s="56"/>
+    </row>
+    <row r="42" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="48"/>
+      <c r="AH42" s="48"/>
+      <c r="AI42" s="48"/>
+      <c r="AK42" s="45"/>
+      <c r="AM42" s="48"/>
+      <c r="AN42" s="48"/>
+      <c r="AO42" s="48"/>
+      <c r="AP42" s="48"/>
+      <c r="AQ42" s="48"/>
+      <c r="AR42" s="48"/>
+      <c r="AS42" s="48"/>
+      <c r="AT42" s="48"/>
+      <c r="AU42" s="48"/>
+      <c r="AV42" s="48"/>
+      <c r="AW42" s="48"/>
+      <c r="AX42" s="48"/>
+      <c r="AY42" s="48"/>
+      <c r="AZ42" s="48"/>
+      <c r="BA42" s="48"/>
+      <c r="BB42" s="48"/>
+      <c r="BC42" s="48"/>
+      <c r="BD42" s="48"/>
+      <c r="BE42" s="48"/>
+      <c r="BF42" s="48"/>
+      <c r="BG42" s="48"/>
+      <c r="BH42" s="48"/>
+      <c r="BI42" s="48"/>
+      <c r="BJ42" s="48"/>
+      <c r="BK42" s="48"/>
+      <c r="BL42" s="48"/>
+      <c r="BM42" s="48"/>
+      <c r="BN42" s="48"/>
+      <c r="BO42" s="48"/>
+      <c r="BP42" s="48"/>
+    </row>
+    <row r="43" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C43" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="59"/>
-      <c r="AA43" s="59"/>
-      <c r="AB43" s="59"/>
-      <c r="AC43" s="59"/>
-      <c r="AD43" s="59"/>
-      <c r="AE43" s="59"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="59"/>
-      <c r="AH43" s="59"/>
-      <c r="AI43" s="59"/>
-      <c r="AK43" s="44"/>
-      <c r="AL43" s="56" t="s">
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="60"/>
+      <c r="AE43" s="60"/>
+      <c r="AF43" s="60"/>
+      <c r="AG43" s="60"/>
+      <c r="AH43" s="60"/>
+      <c r="AI43" s="60"/>
+      <c r="AK43" s="45"/>
+      <c r="AL43" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="AM43" s="56"/>
-      <c r="AN43" s="56"/>
-      <c r="AO43" s="56"/>
-      <c r="AP43" s="56"/>
-      <c r="AQ43" s="56"/>
-      <c r="AR43" s="56"/>
-      <c r="AS43" s="56"/>
-      <c r="AT43" s="56"/>
-      <c r="AU43" s="56"/>
-      <c r="AV43" s="56"/>
-      <c r="AW43" s="56"/>
-      <c r="AX43" s="56"/>
-      <c r="AY43" s="56"/>
-      <c r="AZ43" s="56"/>
-      <c r="BA43" s="56"/>
-      <c r="BB43" s="56"/>
-      <c r="BC43" s="56"/>
-      <c r="BD43" s="56"/>
-      <c r="BE43" s="56"/>
-      <c r="BF43" s="56"/>
-      <c r="BG43" s="56"/>
-      <c r="BH43" s="56"/>
-      <c r="BI43" s="56"/>
-      <c r="BJ43" s="56"/>
-      <c r="BK43" s="56"/>
-      <c r="BL43" s="56"/>
-      <c r="BM43" s="56"/>
-      <c r="BN43" s="56"/>
-      <c r="BO43" s="56"/>
-      <c r="BP43" s="56"/>
-    </row>
-    <row r="44" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="55" t="s">
+      <c r="AM43" s="57"/>
+      <c r="AN43" s="57"/>
+      <c r="AO43" s="57"/>
+      <c r="AP43" s="57"/>
+      <c r="AQ43" s="57"/>
+      <c r="AR43" s="57"/>
+      <c r="AS43" s="57"/>
+      <c r="AT43" s="57"/>
+      <c r="AU43" s="57"/>
+      <c r="AV43" s="57"/>
+      <c r="AW43" s="57"/>
+      <c r="AX43" s="57"/>
+      <c r="AY43" s="57"/>
+      <c r="AZ43" s="57"/>
+      <c r="BA43" s="57"/>
+      <c r="BB43" s="57"/>
+      <c r="BC43" s="57"/>
+      <c r="BD43" s="57"/>
+      <c r="BE43" s="57"/>
+      <c r="BF43" s="57"/>
+      <c r="BG43" s="57"/>
+      <c r="BH43" s="57"/>
+      <c r="BI43" s="57"/>
+      <c r="BJ43" s="57"/>
+      <c r="BK43" s="57"/>
+      <c r="BL43" s="57"/>
+      <c r="BM43" s="57"/>
+      <c r="BN43" s="57"/>
+      <c r="BO43" s="57"/>
+      <c r="BP43" s="57"/>
+    </row>
+    <row r="44" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55"/>
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="55"/>
-      <c r="AB44" s="55"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="55"/>
-      <c r="AK44" s="44"/>
-      <c r="AL44" s="55" t="s">
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="56"/>
+      <c r="AC44" s="56"/>
+      <c r="AD44" s="56"/>
+      <c r="AK44" s="45"/>
+      <c r="AL44" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="AM44" s="55"/>
-      <c r="AN44" s="55"/>
-      <c r="AO44" s="55"/>
-      <c r="AP44" s="55"/>
-      <c r="AQ44" s="55"/>
-      <c r="AR44" s="55"/>
-      <c r="AS44" s="55"/>
-      <c r="AT44" s="55"/>
-      <c r="AU44" s="55"/>
-      <c r="AV44" s="55"/>
-      <c r="AW44" s="55"/>
-      <c r="AX44" s="55"/>
-      <c r="AY44" s="55"/>
-      <c r="AZ44" s="55"/>
-      <c r="BA44" s="55"/>
-      <c r="BB44" s="55"/>
-      <c r="BC44" s="55"/>
-      <c r="BD44" s="55"/>
-      <c r="BE44" s="55"/>
-      <c r="BF44" s="55"/>
-      <c r="BG44" s="55"/>
-      <c r="BH44" s="55"/>
-      <c r="BI44" s="55"/>
-      <c r="BJ44" s="55"/>
-      <c r="BK44" s="55"/>
-      <c r="BL44" s="55"/>
-      <c r="BM44" s="55"/>
-      <c r="BN44" s="55"/>
-      <c r="BO44" s="55"/>
-      <c r="BP44" s="55"/>
-    </row>
-    <row r="45" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="47"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
-      <c r="AD45" s="47"/>
-      <c r="AK45" s="44"/>
-      <c r="AM45" s="47"/>
-      <c r="AN45" s="47"/>
-      <c r="AO45" s="47"/>
-      <c r="AP45" s="47"/>
-      <c r="AQ45" s="47"/>
-      <c r="AR45" s="47"/>
-      <c r="AS45" s="47"/>
-      <c r="AT45" s="47"/>
-      <c r="AU45" s="47"/>
-      <c r="AV45" s="47"/>
-      <c r="AW45" s="47"/>
-      <c r="AX45" s="47"/>
-      <c r="BA45" s="47"/>
-      <c r="BB45" s="47"/>
-      <c r="BC45" s="47"/>
-      <c r="BD45" s="47"/>
-      <c r="BE45" s="47"/>
-      <c r="BG45" s="47"/>
-      <c r="BH45" s="47"/>
-      <c r="BI45" s="47"/>
-      <c r="BJ45" s="47"/>
-      <c r="BK45" s="47"/>
-      <c r="BL45" s="47"/>
-      <c r="BM45" s="47"/>
-      <c r="BN45" s="47"/>
-    </row>
-    <row r="46" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C46" s="51" t="s">
+      <c r="AM44" s="56"/>
+      <c r="AN44" s="56"/>
+      <c r="AO44" s="56"/>
+      <c r="AP44" s="56"/>
+      <c r="AQ44" s="56"/>
+      <c r="AR44" s="56"/>
+      <c r="AS44" s="56"/>
+      <c r="AT44" s="56"/>
+      <c r="AU44" s="56"/>
+      <c r="AV44" s="56"/>
+      <c r="AW44" s="56"/>
+      <c r="AX44" s="56"/>
+      <c r="AY44" s="56"/>
+      <c r="AZ44" s="56"/>
+      <c r="BA44" s="56"/>
+      <c r="BB44" s="56"/>
+      <c r="BC44" s="56"/>
+      <c r="BD44" s="56"/>
+      <c r="BE44" s="56"/>
+      <c r="BF44" s="56"/>
+      <c r="BG44" s="56"/>
+      <c r="BH44" s="56"/>
+      <c r="BI44" s="56"/>
+      <c r="BJ44" s="56"/>
+      <c r="BK44" s="56"/>
+      <c r="BL44" s="56"/>
+      <c r="BM44" s="56"/>
+      <c r="BN44" s="56"/>
+      <c r="BO44" s="56"/>
+      <c r="BP44" s="56"/>
+    </row>
+    <row r="45" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="48"/>
+      <c r="AB45" s="48"/>
+      <c r="AC45" s="48"/>
+      <c r="AD45" s="48"/>
+      <c r="AK45" s="45"/>
+      <c r="AM45" s="48"/>
+      <c r="AN45" s="48"/>
+      <c r="AO45" s="48"/>
+      <c r="AP45" s="48"/>
+      <c r="AQ45" s="48"/>
+      <c r="AR45" s="48"/>
+      <c r="AS45" s="48"/>
+      <c r="AT45" s="48"/>
+      <c r="AU45" s="48"/>
+      <c r="AV45" s="48"/>
+      <c r="AW45" s="48"/>
+      <c r="AX45" s="48"/>
+      <c r="BA45" s="48"/>
+      <c r="BB45" s="48"/>
+      <c r="BC45" s="48"/>
+      <c r="BD45" s="48"/>
+      <c r="BE45" s="48"/>
+      <c r="BG45" s="48"/>
+      <c r="BH45" s="48"/>
+      <c r="BI45" s="48"/>
+      <c r="BJ45" s="48"/>
+      <c r="BK45" s="48"/>
+      <c r="BL45" s="48"/>
+      <c r="BM45" s="48"/>
+      <c r="BN45" s="48"/>
+    </row>
+    <row r="46" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C46" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="R46" s="51" t="s">
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="R46" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
-      <c r="V46" s="51" t="s">
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="V46" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="51"/>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-      <c r="AD46" s="51"/>
-      <c r="AK46" s="44"/>
-      <c r="AM46" s="51" t="s">
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AK46" s="45"/>
+      <c r="AM46" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="AN46" s="51"/>
-      <c r="AO46" s="51"/>
-      <c r="AP46" s="51"/>
-      <c r="AQ46" s="51"/>
-      <c r="AR46" s="51"/>
-      <c r="AS46" s="51"/>
-      <c r="AT46" s="51"/>
-      <c r="AU46" s="51"/>
-      <c r="AV46" s="51"/>
-      <c r="AW46" s="51"/>
-      <c r="AX46" s="51"/>
-      <c r="AZ46" s="53" t="s">
+      <c r="AN46" s="52"/>
+      <c r="AO46" s="52"/>
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52"/>
+      <c r="AR46" s="52"/>
+      <c r="AS46" s="52"/>
+      <c r="AT46" s="52"/>
+      <c r="AU46" s="52"/>
+      <c r="AV46" s="52"/>
+      <c r="AW46" s="52"/>
+      <c r="AX46" s="52"/>
+      <c r="AZ46" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="BA46" s="53"/>
-      <c r="BB46" s="53"/>
-      <c r="BC46" s="53"/>
-      <c r="BD46" s="53"/>
-      <c r="BE46" s="53"/>
-      <c r="BG46" s="51" t="s">
+      <c r="BA46" s="54"/>
+      <c r="BB46" s="54"/>
+      <c r="BC46" s="54"/>
+      <c r="BD46" s="54"/>
+      <c r="BE46" s="54"/>
+      <c r="BG46" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="BH46" s="51"/>
-      <c r="BI46" s="51"/>
-      <c r="BJ46" s="51"/>
-      <c r="BK46" s="51"/>
-      <c r="BL46" s="51"/>
-      <c r="BM46" s="51"/>
-      <c r="BN46" s="51"/>
-    </row>
-    <row r="47" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="55" t="s">
+      <c r="BH46" s="52"/>
+      <c r="BI46" s="52"/>
+      <c r="BJ46" s="52"/>
+      <c r="BK46" s="52"/>
+      <c r="BL46" s="52"/>
+      <c r="BM46" s="52"/>
+      <c r="BN46" s="52"/>
+    </row>
+    <row r="47" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="55"/>
-      <c r="AB47" s="55"/>
-      <c r="AC47" s="55"/>
-      <c r="AD47" s="55"/>
-      <c r="AK47" s="44"/>
-      <c r="AL47" s="55" t="s">
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="56"/>
+      <c r="AC47" s="56"/>
+      <c r="AD47" s="56"/>
+      <c r="AK47" s="45"/>
+      <c r="AL47" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="AM47" s="55"/>
-      <c r="AN47" s="55"/>
-      <c r="AO47" s="55"/>
-      <c r="AP47" s="55"/>
-      <c r="AQ47" s="55"/>
-      <c r="AR47" s="55"/>
-      <c r="AS47" s="55"/>
-      <c r="AT47" s="55"/>
-      <c r="AU47" s="55"/>
-      <c r="AV47" s="55"/>
-      <c r="AW47" s="55"/>
-      <c r="AX47" s="55"/>
-      <c r="AY47" s="55"/>
-      <c r="AZ47" s="55"/>
-      <c r="BA47" s="55"/>
-      <c r="BB47" s="55"/>
-      <c r="BC47" s="55"/>
-      <c r="BD47" s="55"/>
-      <c r="BE47" s="55"/>
-      <c r="BF47" s="55"/>
-      <c r="BG47" s="55"/>
-      <c r="BH47" s="55"/>
-      <c r="BI47" s="55"/>
-      <c r="BJ47" s="55"/>
-      <c r="BK47" s="55"/>
-      <c r="BL47" s="55"/>
-      <c r="BM47" s="55"/>
-      <c r="BN47" s="55"/>
-      <c r="BO47" s="55"/>
-      <c r="BP47" s="55"/>
-    </row>
-    <row r="48" s="42" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="60" t="s">
+      <c r="AM47" s="56"/>
+      <c r="AN47" s="56"/>
+      <c r="AO47" s="56"/>
+      <c r="AP47" s="56"/>
+      <c r="AQ47" s="56"/>
+      <c r="AR47" s="56"/>
+      <c r="AS47" s="56"/>
+      <c r="AT47" s="56"/>
+      <c r="AU47" s="56"/>
+      <c r="AV47" s="56"/>
+      <c r="AW47" s="56"/>
+      <c r="AX47" s="56"/>
+      <c r="AY47" s="56"/>
+      <c r="AZ47" s="56"/>
+      <c r="BA47" s="56"/>
+      <c r="BB47" s="56"/>
+      <c r="BC47" s="56"/>
+      <c r="BD47" s="56"/>
+      <c r="BE47" s="56"/>
+      <c r="BF47" s="56"/>
+      <c r="BG47" s="56"/>
+      <c r="BH47" s="56"/>
+      <c r="BI47" s="56"/>
+      <c r="BJ47" s="56"/>
+      <c r="BK47" s="56"/>
+      <c r="BL47" s="56"/>
+      <c r="BM47" s="56"/>
+      <c r="BN47" s="56"/>
+      <c r="BO47" s="56"/>
+      <c r="BP47" s="56"/>
+    </row>
+    <row r="48" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C48" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="60"/>
-      <c r="V48" s="60"/>
-      <c r="W48" s="60"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="60"/>
-      <c r="Z48" s="60"/>
-      <c r="AA48" s="60"/>
-      <c r="AB48" s="60"/>
-      <c r="AC48" s="60"/>
-      <c r="AD48" s="47"/>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="47"/>
-      <c r="AH48" s="47"/>
-      <c r="AK48" s="44"/>
-      <c r="AM48" s="60" t="s">
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="61"/>
+      <c r="Z48" s="61"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="61"/>
+      <c r="AC48" s="61"/>
+      <c r="AD48" s="48"/>
+      <c r="AE48" s="48"/>
+      <c r="AF48" s="48"/>
+      <c r="AG48" s="48"/>
+      <c r="AH48" s="48"/>
+      <c r="AK48" s="45"/>
+      <c r="AM48" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="AN48" s="60"/>
-      <c r="AO48" s="60"/>
-      <c r="AP48" s="60"/>
-      <c r="AQ48" s="60"/>
-      <c r="AR48" s="60"/>
-      <c r="AS48" s="60"/>
-      <c r="AT48" s="60"/>
-      <c r="AU48" s="60"/>
-      <c r="AV48" s="60"/>
-      <c r="AW48" s="60"/>
-      <c r="AX48" s="60"/>
-      <c r="AY48" s="60"/>
-      <c r="AZ48" s="60"/>
-      <c r="BA48" s="60"/>
-      <c r="BB48" s="60"/>
-      <c r="BC48" s="60"/>
-      <c r="BD48" s="60"/>
-      <c r="BE48" s="60"/>
-      <c r="BF48" s="60"/>
-      <c r="BG48" s="60"/>
-      <c r="BH48" s="60"/>
-      <c r="BI48" s="60"/>
-      <c r="BJ48" s="60"/>
-      <c r="BK48" s="60"/>
-      <c r="BL48" s="60"/>
-      <c r="BM48" s="47"/>
-      <c r="BN48" s="47"/>
-      <c r="BO48" s="47"/>
-      <c r="BP48" s="47"/>
-    </row>
-    <row r="49" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="53" t="s">
+      <c r="AN48" s="61"/>
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="61"/>
+      <c r="AQ48" s="61"/>
+      <c r="AR48" s="61"/>
+      <c r="AS48" s="61"/>
+      <c r="AT48" s="61"/>
+      <c r="AU48" s="61"/>
+      <c r="AV48" s="61"/>
+      <c r="AW48" s="61"/>
+      <c r="AX48" s="61"/>
+      <c r="AY48" s="61"/>
+      <c r="AZ48" s="61"/>
+      <c r="BA48" s="61"/>
+      <c r="BB48" s="61"/>
+      <c r="BC48" s="61"/>
+      <c r="BD48" s="61"/>
+      <c r="BE48" s="61"/>
+      <c r="BF48" s="61"/>
+      <c r="BG48" s="61"/>
+      <c r="BH48" s="61"/>
+      <c r="BI48" s="61"/>
+      <c r="BJ48" s="61"/>
+      <c r="BK48" s="61"/>
+      <c r="BL48" s="61"/>
+      <c r="BM48" s="48"/>
+      <c r="BN48" s="48"/>
+      <c r="BO48" s="48"/>
+      <c r="BP48" s="48"/>
+    </row>
+    <row r="49" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
-      <c r="AE49" s="53"/>
-      <c r="AF49" s="53"/>
-      <c r="AG49" s="53"/>
-      <c r="AH49" s="53"/>
-      <c r="AI49" s="53"/>
-      <c r="AK49" s="44"/>
-      <c r="AM49" s="51" t="s">
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="54"/>
+      <c r="AB49" s="54"/>
+      <c r="AC49" s="54"/>
+      <c r="AD49" s="54"/>
+      <c r="AE49" s="54"/>
+      <c r="AF49" s="54"/>
+      <c r="AG49" s="54"/>
+      <c r="AH49" s="54"/>
+      <c r="AI49" s="54"/>
+      <c r="AK49" s="45"/>
+      <c r="AM49" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="AN49" s="51"/>
-      <c r="AO49" s="51"/>
-      <c r="AP49" s="51"/>
-      <c r="AQ49" s="51"/>
-      <c r="AR49" s="51"/>
-      <c r="AS49" s="51"/>
-      <c r="AT49" s="51"/>
-      <c r="AU49" s="51"/>
-      <c r="AV49" s="51"/>
-      <c r="AW49" s="51"/>
-      <c r="AX49" s="51"/>
-      <c r="AY49" s="51"/>
-      <c r="AZ49" s="51"/>
-      <c r="BA49" s="51"/>
-      <c r="BB49" s="51"/>
-      <c r="BC49" s="51"/>
-      <c r="BD49" s="51"/>
-      <c r="BE49" s="51"/>
-      <c r="BF49" s="51"/>
-      <c r="BG49" s="51"/>
-      <c r="BH49" s="51"/>
-      <c r="BI49" s="51"/>
-      <c r="BJ49" s="51"/>
-      <c r="BK49" s="51"/>
-      <c r="BL49" s="51"/>
-      <c r="BM49" s="51"/>
-      <c r="BN49" s="51"/>
-      <c r="BO49" s="51"/>
-      <c r="BP49" s="51"/>
-    </row>
-    <row r="50" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AK50" s="44"/>
-    </row>
-    <row r="51" s="42" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I51" s="57" t="s">
+      <c r="AN49" s="52"/>
+      <c r="AO49" s="52"/>
+      <c r="AP49" s="52"/>
+      <c r="AQ49" s="52"/>
+      <c r="AR49" s="52"/>
+      <c r="AS49" s="52"/>
+      <c r="AT49" s="52"/>
+      <c r="AU49" s="52"/>
+      <c r="AV49" s="52"/>
+      <c r="AW49" s="52"/>
+      <c r="AX49" s="52"/>
+      <c r="AY49" s="52"/>
+      <c r="AZ49" s="52"/>
+      <c r="BA49" s="52"/>
+      <c r="BB49" s="52"/>
+      <c r="BC49" s="52"/>
+      <c r="BD49" s="52"/>
+      <c r="BE49" s="52"/>
+      <c r="BF49" s="52"/>
+      <c r="BG49" s="52"/>
+      <c r="BH49" s="52"/>
+      <c r="BI49" s="52"/>
+      <c r="BJ49" s="52"/>
+      <c r="BK49" s="52"/>
+      <c r="BL49" s="52"/>
+      <c r="BM49" s="52"/>
+      <c r="BN49" s="52"/>
+      <c r="BO49" s="52"/>
+      <c r="BP49" s="52"/>
+    </row>
+    <row r="50" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AK50" s="45"/>
+    </row>
+    <row r="51" s="43" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I51" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="AK51" s="44"/>
-      <c r="AR51" s="57" t="s">
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="AK51" s="45"/>
+      <c r="AR51" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="AS51" s="57"/>
+      <c r="AS51" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="185">

--- a/application/views/rpt/ru/doc/upd.xlsx
+++ b/application/views/rpt/ru/doc/upd.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">ИНН / КПП продавца :</t>
   </si>
   <si>
-    <t xml:space="preserve">{$v-&gt;seller-&gt;company_tax_id} / {$v-&gt;seller-&gt;company_tax_id}</t>
+    <t xml:space="preserve">{$v-&gt;seller-&gt;company_tax_id} / {$v-&gt;seller-&gt;company_tax_id2}</t>
   </si>
   <si>
     <t xml:space="preserve">Грузоотправитель и его адрес :</t>
@@ -920,11 +920,11 @@
   </sheetPr>
   <dimension ref="B1:BQ51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF21" activeCellId="0" sqref="AF21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1"/>
